--- a/HW/CPL.xlsx
+++ b/HW/CPL.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1594396915" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1594396915" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1594396915" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1594396915"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594566805" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594566805" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594566805" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594566805"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Designator</t>
   </si>
@@ -43,66 +43,87 @@
     <t>C1</t>
   </si>
   <si>
-    <t>-19mm</t>
+    <t>-21.25mm</t>
+  </si>
+  <si>
+    <t>-10.05mm</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>-2.5mm</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>-11.3mm</t>
+  </si>
+  <si>
+    <t>-11mm</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>-7.3mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>-12.5mm</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>-15.5mm</t>
   </si>
   <si>
     <t>-10mm</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>14mm</t>
-  </si>
-  <si>
-    <t>2.5mm</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>-2.5mm</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>R3</t>
   </si>
   <si>
     <t>-8mm</t>
   </si>
   <si>
-    <t>-11mm</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>-8.4mm</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>-12.5mm</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>11mm</t>
   </si>
   <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>-9.85mm</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>12.9mm</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -119,6 +140,18 @@
   </si>
   <si>
     <t>9mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>-5.95</t>
   </si>
 </sst>
 </file>
@@ -148,7 +181,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -163,7 +196,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -179,7 +212,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -194,7 +227,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -209,7 +242,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -223,7 +256,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -238,7 +271,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -253,7 +286,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -267,7 +300,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -281,7 +314,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -296,7 +329,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="300" lang="default" weight="bold"/>
@@ -311,7 +344,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -326,7 +359,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="360" lang="default" weight="bold"/>
@@ -340,7 +373,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -354,7 +387,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -369,7 +402,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -384,7 +417,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="260" lang="default" weight="bold"/>
@@ -398,7 +431,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -412,7 +445,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -427,7 +460,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -442,7 +475,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -457,7 +490,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1594396915" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594566805" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" i="1"/>
@@ -466,7 +499,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,7 +512,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -490,7 +523,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -501,7 +534,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -512,7 +545,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -523,7 +556,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -534,7 +567,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -545,7 +578,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -559,7 +592,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -573,7 +606,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -584,7 +617,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -595,7 +628,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -606,7 +639,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -617,7 +650,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -628,7 +661,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -645,7 +678,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -656,7 +689,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -667,7 +700,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -678,7 +711,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -689,7 +722,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -700,7 +733,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -711,7 +744,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -722,7 +755,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -733,7 +766,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -744,7 +777,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -755,7 +788,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -766,7 +799,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -777,7 +810,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -788,7 +821,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -799,7 +832,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -810,7 +843,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -821,7 +854,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -832,7 +865,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -843,7 +876,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -857,59 +890,48 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1594396915" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594566805" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+  <borders count="40">
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -928,7 +950,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -952,45 +974,45 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1009,7 +1031,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1033,7 +1055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1052,7 +1074,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1073,7 +1095,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1092,7 +1114,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1113,7 +1135,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1132,7 +1154,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1156,7 +1178,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1180,7 +1202,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1204,26 +1226,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1242,7 +1264,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1263,7 +1285,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1285,330 +1307,330 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -1627,7 +1649,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1651,7 +1673,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915">
+          <pm:border xmlns:pm="smNativeData" id="1594566805">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1675,26 +1697,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1594396915"/>
+          <pm:border xmlns:pm="smNativeData" id="1594566805"/>
         </ext>
       </extLst>
     </border>
@@ -2063,10 +2066,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1594396915" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594566805" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1594396915" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1594566805" count="41">
         <pm:color name="Color 24" rgb="3F3F3F"/>
         <pm:color name="Color 25" rgb="44546A"/>
         <pm:color name="Color 26" rgb="800080"/>
@@ -2373,7 +2376,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.60"/>
@@ -2509,10 +2512,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>8</v>
@@ -2523,13 +2526,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>8</v>
@@ -2540,13 +2543,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>8</v>
@@ -2557,72 +2560,105 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="50" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="A13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="50" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="A14" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="50" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="A15" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="A16" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="52"/>
@@ -2631,7 +2667,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1594396915" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594566805" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2640,14 +2676,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1594396915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1594396915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594566805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594566805" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594396915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594566805" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
